--- a/reports/licenses_by_category.xlsx
+++ b/reports/licenses_by_category.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,31 +460,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Vasile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28/06/2016</t>
+          <t>11/09/2015</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>26/06/2026</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -493,130 +493,130 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gheorghe</t>
+          <t>Ionescu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22/09/2018</t>
+          <t>29/03/2019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19/09/2028</t>
+          <t>26/03/2029</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vasile</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>22/04/2011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20/09/2029</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Florin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26/01/2016</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23/01/2026</t>
+          <t>19/04/2029</t>
         </is>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Gheorghe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>11/08/2012</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>27/09/2033</t>
+          <t>09/08/2022</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -625,64 +625,64 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11/10/2017</t>
+          <t>25/06/2013</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09/10/2027</t>
+          <t>23/06/2023</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16/01/2016</t>
+          <t>24/02/2016</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>21/02/2026</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -691,100 +691,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>12/01/2017</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08/10/2030</t>
+          <t>10/01/2027</t>
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>117</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Radu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Alexandru</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20/12/2022</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>17/12/2032</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>119</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dumitrescu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27/12/2023</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>24/12/2033</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
